--- a/test5.xlsx
+++ b/test5.xlsx
@@ -273,7 +273,41 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:3">
+      <c r="A1">
+        <v>0</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3">
+      <c r="A3">
+        <v>4</v>
+      </c>
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
 </worksheet>
 </file>
 

--- a/test5.xlsx
+++ b/test5.xlsx
@@ -3,10 +3,10 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <workbookPr/>
   <sheets>
-    <sheet state="visible" name="Sheet1" sheetId="1" r:id="rId4"/>
-    <sheet state="visible" name="Sheet2" sheetId="2" r:id="rId5"/>
-    <sheet state="visible" name="sheet3" sheetId="6" r:id="rId6"/>
-    <sheet state="visible" name="sheet4" sheetId="7" r:id="rId7"/>
+    <sheet state="visible" name="sheet1" sheetId="6" r:id="rId6"/>
+    <sheet state="visible" name="sheetWithChart2" sheetId="7" r:id="rId7"/>
+    <sheet state="visible" name="sheet3" sheetId="8" r:id="rId8"/>
+    <sheet state="visible" name="sheet4" sheetId="9" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr/>
@@ -19,10 +19,14 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
-  <fonts count="1">
+  <fonts count="2">
     <font>
       <sz val="10.0"/>
       <color rgb="FF000000"/>
+      <name val="Arial"/>
+    </font>
+    <font>
+      <color theme="1"/>
       <name val="Arial"/>
     </font>
   </fonts>
@@ -40,9 +44,12 @@
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="2">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
       <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+    </xf>
+    <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
+      <alignment readingOrder="0"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -52,8 +59,508 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartTemplate!$A$2:$A$3</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartTemplate!$B$2:$B$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="180036679"/>
+        <c:axId val="2135654505"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="180036679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135654505"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2135654505"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="180036679"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chartsheetWithChart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="757575"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:rPr>
+              <a:t>title</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln cmpd="sng">
+              <a:solidFill>
+                <a:srgbClr val="000000"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+          <c:cat>
+            <c:strRef>
+              <c:f>ChartTemplate!$A$2:$A$3</c:f>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>ChartTemplate!$B$2:$B$3</c:f>
+              <c:numCache/>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:axId val="180036679"/>
+        <c:axId val="2135654505"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="180036679"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:spPr/>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="2135654505"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="2135654505"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="B7B7B7"/>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:minorGridlines>
+          <c:spPr>
+            <a:ln>
+              <a:solidFill>
+                <a:srgbClr val="CCCCCC">
+                  <a:alpha val="0"/>
+                </a:srgbClr>
+              </a:solidFill>
+            </a:ln>
+          </c:spPr>
+        </c:minorGridlines>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr lvl="0">
+                  <a:defRPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:defRPr>
+                </a:pPr>
+                <a:r>
+                  <a:rPr b="0">
+                    <a:solidFill>
+                      <a:srgbClr val="000000"/>
+                    </a:solidFill>
+                    <a:latin typeface="+mn-lt"/>
+                  </a:rPr>
+                  <a:t/>
+                </a:r>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr lvl="0">
+              <a:defRPr b="0">
+                <a:solidFill>
+                  <a:srgbClr val="000000"/>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+              </a:defRPr>
+            </a:pPr>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="180036679"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="r"/>
+      <c:overlay val="0"/>
+      <c:txPr>
+        <a:bodyPr/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr lvl="0">
+            <a:defRPr b="0">
+              <a:solidFill>
+                <a:srgbClr val="1A1A1A"/>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+            </a:defRPr>
+          </a:pPr>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+  </c:chart>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/chartsheetWithChart2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
+</file>
+
+<file path=xl/drawings/drawing2.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -260,11 +767,67 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData>
+    <row r="2">
+      <c r="A2" s="1">
+        <v>1.0</v>
+      </c>
+      <c r="B2" s="1">
+        <v>3.0</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1">
+        <v>2.0</v>
+      </c>
+      <c r="B3" s="1">
+        <v>4.0</v>
+      </c>
+    </row>
+  </sheetData>
   <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheetWithChart2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -308,31 +871,6 @@
       </c>
     </row>
   </sheetData>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
--- a/test5.xlsx
+++ b/test5.xlsx
@@ -279,7 +279,7 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/charts/chartsheetWithChart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/charts/chart7.xml><?xml version="1.0" encoding="utf-8"?>
 <c:chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart">
   <c:chart>
     <c:title>
@@ -303,7 +303,7 @@
                 </a:solidFill>
                 <a:latin typeface="+mn-lt"/>
               </a:rPr>
-              <a:t>title</a:t>
+              <a:t>testChart</a:t>
             </a:r>
           </a:p>
         </c:rich>
@@ -329,12 +329,12 @@
           </c:spPr>
           <c:cat>
             <c:strRef>
-              <c:f>ChartTemplate!$A$2:$A$3</c:f>
+              <c:f>sheetWithChart2!$A$1:$A$2</c:f>
             </c:strRef>
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>ChartTemplate!$B$2:$B$3</c:f>
+              <c:f>sheetWithChart2!$B$1:$B$2</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
@@ -499,36 +499,6 @@
 </c:chartSpace>
 </file>
 
-<file path=xl/drawings/chartsheetWithChart2.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
-  <xdr:oneCellAnchor>
-    <xdr:from>
-      <xdr:col>3</xdr:col>
-      <xdr:colOff>504825</xdr:colOff>
-      <xdr:row>5</xdr:row>
-      <xdr:rowOff>161925</xdr:rowOff>
-    </xdr:from>
-    <xdr:ext cx="5715000" cy="3533775"/>
-    <xdr:graphicFrame>
-      <xdr:nvGraphicFramePr>
-        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
-        <xdr:cNvGraphicFramePr/>
-      </xdr:nvGraphicFramePr>
-      <xdr:xfrm>
-        <a:off x="0" y="0"/>
-        <a:ext cx="0" cy="0"/>
-      </xdr:xfrm>
-      <a:graphic>
-        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
-          <c:chart r:id="rId2"/>
-        </a:graphicData>
-      </a:graphic>
-    </xdr:graphicFrame>
-    <xdr:clientData fLocksWithSheet="0"/>
-  </xdr:oneCellAnchor>
-</xdr:wsDr>
-</file>
-
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer"/>
 </file>
@@ -555,6 +525,36 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData fLocksWithSheet="0"/>
+  </xdr:oneCellAnchor>
+</xdr:wsDr>
+</file>
+
+<file path=xl/drawings/drawing7.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram" xmlns:x3Unk="http://schemas.microsoft.com/office/drawing/2010/slicer" xmlns:sle15="http://schemas.microsoft.com/office/drawing/2012/slicer">
+  <xdr:oneCellAnchor>
+    <xdr:from>
+      <xdr:col>3</xdr:col>
+      <xdr:colOff>504825</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>161925</xdr:rowOff>
+    </xdr:from>
+    <xdr:ext cx="5715000" cy="3533775"/>
+    <xdr:graphicFrame>
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="1" name="Chart 1" title="Chart"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId7"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -767,6 +767,7 @@
   </sheetViews>
   <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
   <sheetData/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>
 
@@ -801,7 +802,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -814,20 +815,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
-  <sheetData/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheetWithChart2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="0" summaryRight="0"/>
@@ -871,6 +859,32 @@
       </c>
     </row>
   </sheetData>
-  <drawing r:id="rId2"/>
+  <drawing r:id="rId7"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="0" summaryRight="0"/>
+  </sheetPr>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr customHeight="1" defaultColWidth="14.43" defaultRowHeight="15.75"/>
+  <sheetData/>
 </worksheet>
 </file>
--- a/test5.xlsx
+++ b/test5.xlsx
@@ -334,7 +334,7 @@
           </c:cat>
           <c:val>
             <c:numRef>
-              <c:f>sheetWithChart2!$B$1:$B$2</c:f>
+              <c:f>sheetWithChart2!$C$1:$C$2</c:f>
               <c:numCache/>
             </c:numRef>
           </c:val>
